--- a/biology/Médecine/Attaché_d’administration_hospitalière/Attaché_d’administration_hospitalière.xlsx
+++ b/biology/Médecine/Attaché_d’administration_hospitalière/Attaché_d’administration_hospitalière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Attach%C3%A9_d%E2%80%99administration_hospitali%C3%A8re</t>
+          <t>Attaché_d’administration_hospitalière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les attachés d'administration hospitalière sont des fonctionnaires appartenant à un corps de la fonction publique hospitalière de catégorie A. 
 Ils exercent leurs fonctions dans les établissements publics de santé (centres hospitaliers universitaires ou centres hospitaliers), les maisons de retraite publiques, les établissements d'hébergement pour personnes âgées dépendantes (EHPAD), les établissements publics départementaux d’aide sociale à l’enfance, les établissements publics pour personnes handicapées ou inadaptées, les centres d’hébergement et de réinsertion sociale publics ou le Centre d’accueil et de soins hospitaliers de Nanterre.
-Leur statut est défini par le décret no 2001-1207 du 19 décembre 2001 modifié portant statut particulier du corps des attachés d’administration hospitalière[1].
+Leur statut est défini par le décret no 2001-1207 du 19 décembre 2001 modifié portant statut particulier du corps des attachés d’administration hospitalière.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Attach%C3%A9_d%E2%80%99administration_hospitali%C3%A8re</t>
+          <t>Attaché_d’administration_hospitalière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Métier d'attaché d'administration hospitalière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous l’autorité du directeur d’établissement, l'attaché d'administration hospitalière participe à la conception, à l'élaboration et à la mise en œuvre du projet d'établissement ainsi que des politiques décidées dans les domaines administratif, financier, économique, sanitaire, social, médico-social. À ce titre, il est chargé de fonctions de conception, d'expertise, de gestion, ou de pilotage d'unités administratives.
 Il a vocation à être chargé de fonctions d'encadrement et peut, dans les établissements publics de santé, assister un chef de pôle d'activité clinique ou médicotechnique. Il peut également se voir confier des missions, des études ou des fonctions comportant des responsabilités particulières, notamment en matière :
@@ -540,7 +554,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Attach%C3%A9_d%E2%80%99administration_hospitali%C3%A8re</t>
+          <t>Attaché_d’administration_hospitalière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -558,7 +572,9 @@
           <t>Accès au corps des attachés d'administration hospitalière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'accès au corps est sanctionné par la réussite à un concours ouvert par le ministère chargé de la santé et organisé par le  Centre National de Gestion selon l’une des trois modalités suivantes :
 Le concours externe, ouvert aux personnes titulaires d’une licence ou d’un autre titre ou diplôme classé au moins au niveau II ou possédant une qualification reconnue comme équivalente à l’un de ces titres ou diplômes par le décret no 2007-196 du 13 février 2007 relatif aux équivalences de diplômes requises pour se présenter aux concours d’accès aux corps et cadres d’emplois de la fonction publique ;
@@ -578,7 +594,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Attach%C3%A9_d%E2%80%99administration_hospitali%C3%A8re</t>
+          <t>Attaché_d’administration_hospitalière</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -596,7 +612,9 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les lauréats au concours sont nommés élèves attachés par arrêté du ministre chargé de la santé. Ils suivent à l'École des hautes études en santé publique (EHESP), un cycle de formation d'une durée totale de douze mois comportant un enseignement théorique et des stages pratiques. Cette formation tient lieu d'année de stage telle qu'elle est prévue par l'article 37 de la loi du 9 janvier 1986. Le cycle de formation fait l'objet d'une évaluation par un jury.
 Le cycle de formation théorique et pratique des élèves attachés prévu par l'article 8 du décret du 19 décembre 2001 s'articule autour d'enseignements théoriques et de travaux pratiques d'une durée totale de huit mois accomplis à l'EHESP, ainsi que des stages pratiques de mises en situations professionnelles d'une durée totale de quatre mois effectués dans des établissements de santé publics ou privés ou dans d'autres établissements agréés par le directeur de l'EHESP.
@@ -621,7 +639,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Attach%C3%A9_d%E2%80%99administration_hospitali%C3%A8re</t>
+          <t>Attaché_d’administration_hospitalière</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -639,7 +657,9 @@
           <t>Affectation et titularisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">À compter de sa première affectation, la gestion administrative de l'attaché d’administration hospitalière est assurée localement par les établissements relevant de la fonction publique hospitalière. Préalablement, c'est le Centre national de gestion qui assure son recrutement comme élève fonctionnaire en formation à l’EHESP et se charge de sa première affectation à l'issue de celle-ci.
 Les élèves attachés dont le cycle de formation a été validé par le jury sont inscrits par ordre alphabétique sur une liste d'aptitude établie par un arrêté du ministre chargé de la santé. À l'issue de leur formation, les élèves attachés inscrits sur cette liste d'aptitude postulent sur la liste des postes offerts à la vacance, fixée sur proposition du directeur général du Centre national de gestion par un arrêté du ministre chargé de la santé publié au journal officiel. 
@@ -654,7 +674,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Attach%C3%A9_d%E2%80%99administration_hospitali%C3%A8re</t>
+          <t>Attaché_d’administration_hospitalière</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -672,7 +692,9 @@
           <t>Cycle d'études préparatoires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Avant de se présenter au concours interne, les fonctionnaires et agents publics des trois fonctions publiques (étatique, hospitalière et territoriale) peuvent être admis à suivre un cycle d'études préparatoires organisé par l'EHESP .
 Ne peuvent toutefois être candidats au concours d'accès à ce cycle d'études préparatoires les personnes qui ont déjà suivi un cycle préparatoire organisé à l'intention des fonctionnaires et agents publics candidats aux concours figurant sur la liste prévue à l'article 1er du décret no 76-811 du 20 août 1976.
@@ -688,7 +710,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Attach%C3%A9_d%E2%80%99administration_hospitali%C3%A8re</t>
+          <t>Attaché_d’administration_hospitalière</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -706,7 +728,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le corps des attachés d'administration hospitalière comprend trois grades ;
 le grade d'attaché comportant onze échelons.
@@ -725,7 +749,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Attach%C3%A9_d%E2%80%99administration_hospitali%C3%A8re</t>
+          <t>Attaché_d’administration_hospitalière</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -745,15 +769,54 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Textes de portée générale
-Loi no 83-634 du 13 juillet 1983 portant droits et obligations des fonctionnaires ;
+          <t>Textes de portée générale</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Loi no 83-634 du 13 juillet 1983 portant droits et obligations des fonctionnaires ;
 Loi no 86-33 du 9 janvier 1986 portant dispositions statutaires relatives à la fonction publique hospitalière ;
 Décret no 97-487 du 12 mai 1997 fixant les dispositions communes applicables aux agents stagiaires de la fonction publique hospitalière ;
 Décret no 2007-961 du 15 mai 2007 fixant les dispositions statutaires communes applicables à certains corps de fonctionnaires de catégorie A de la fonction publique hospitalière ;
 Décret no 2010-30 du 8 janvier 2010 pris en application de l’article 77 de la loi no 86-33 du 9 janvier 1986 modifiée portant dispositions statutaires relatives à la fonction publique hospitalière (logement de fonctions) ;
-Arrêté du 24 mars 1967 relatif aux conditions d’attribution de primes de service aux personnels de certains établissements énumérés à l’article 2 de la loi du 9 janvier 1986.
-Textes spécifiques aux attachés d’administration hospitalière
-Décret no 2001-1207 du 19 décembre 2001 modifié portant statut particulier du corps des attachés d'administration hospitalière ;
+Arrêté du 24 mars 1967 relatif aux conditions d’attribution de primes de service aux personnels de certains établissements énumérés à l’article 2 de la loi du 9 janvier 1986.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Attaché_d’administration_hospitalière</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Attach%C3%A9_d%E2%80%99administration_hospitali%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Textes de référence</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Textes spécifiques aux attachés d’administration hospitalière</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Décret no 2001-1207 du 19 décembre 2001 modifié portant statut particulier du corps des attachés d'administration hospitalière ;
 Décret no 2018-507 du 21 juin 2018 modifié relatif au classement indiciaire des attachés d’administration hospitalière ;
 Arrêté du 18 juin 2009 relatif aux taux des indemnités forfaitaires représentatives de travaux supplémentaires allouées à certains personnels de la fonction publique hospitalière ;
 Arrêté du 30 juin 2009 organisant l’ouverture d’une classe préparatoire intégrée aux concours externes de recrutement de personnel de direction des établissements mentionnés aux 1° et 7° de l’article 2 de la loi no 86-33 du 9 janvier 1986 portant dispositions statutaires relatives à la fonction publique hospitalière, de directeurs d’établissements sanitaires, sociaux et médico-sociaux, d’attachés d’administration hospitalière et d’inspecteurs de l’action sanitaire et sociale ;
@@ -764,9 +827,43 @@
 Arrêté du 6 février 2012 déterminant les modalités d’organisation et de validation de la formation d’adaptation à l’emploi des fonctionnaires recrutés par inscription sur une liste d’aptitude et du personnel détaché dans le corps des attachés d’administration hospitalière ;
 Arrêté du 15 février 2012 fixant la composition du jury, le programme, la nature des épreuves et les modalités d’organisation des concours d’accès au cycle de formation des élèves attachés d’administration hospitalière ;
 Décret no 2012-750 du 9 mai 2012 fixant le régime indemnitaire, à l’École des hautes études en santé publique, des élèves attachés d’administration hospitalière ;
-Arrêté du 9 mai 2012 relatif aux indemnités allouées, à l’École des hautes études en santé publique, aux élèves attachés d’administration hospitalière.
-Jurisprudence
-Arrêt no 312136 du Conseil d’État, 1re sous-section en date du 8 avril 2009 précisant que le critère de pondération générale (baisse ou maintien) appliqué automatiquement à la note d’un fonctionnaire pour tenir compte de son changement de grade est dépourvu de tout lien avec sa valeur professionnelle et n’est pas, par suite, au nombre des motifs pouvant légalement être pris en compte par l’autorité investie du pouvoir de notation.
+Arrêté du 9 mai 2012 relatif aux indemnités allouées, à l’École des hautes études en santé publique, aux élèves attachés d’administration hospitalière.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Attaché_d’administration_hospitalière</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Attach%C3%A9_d%E2%80%99administration_hospitali%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Textes de référence</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Jurisprudence</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Arrêt no 312136 du Conseil d’État, 1re sous-section en date du 8 avril 2009 précisant que le critère de pondération générale (baisse ou maintien) appliqué automatiquement à la note d’un fonctionnaire pour tenir compte de son changement de grade est dépourvu de tout lien avec sa valeur professionnelle et n’est pas, par suite, au nombre des motifs pouvant légalement être pris en compte par l’autorité investie du pouvoir de notation.
 Arrêt no 328370 du Conseil d’État, 5e sous-section en date du 18 juillet 2011 relatif à la nouvelle bonification indiciaire de 25 points instituée par le 4° de l’article 4 du décret du 14 février 1994.</t>
         </is>
       </c>
